--- a/medicine/Mort/Porc_abattu/Porc_abattu.xlsx
+++ b/medicine/Mort/Porc_abattu/Porc_abattu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Porc abattu (Geschlachtetes Schwein) est un dessin du peintre allemand Lovis Corinth réalisé en 1906. 
-Aujourd'hui il est exposé au Museum of Modern Art à New York (donation de M. et Mme Walter Bareiss)[1].
+Aujourd'hui il est exposé au Museum of Modern Art à New York (donation de M. et Mme Walter Bareiss).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dessin représente un porc mort étendu sur un banc de bois. Le cochon est présenté de façon très réaliste, dans un clair-obscur accentuant le relief, la forme massive de l'animal étant éclairée par des touches de jaune tandis que d'autres parties disparaissent dans l'ombre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dessin représente un porc mort étendu sur un banc de bois. Le cochon est présenté de façon très réaliste, dans un clair-obscur accentuant le relief, la forme massive de l'animal étant éclairée par des touches de jaune tandis que d'autres parties disparaissent dans l'ombre.
 Le dessin a été réalisé en 1906, vraisemblablement le 2 août en même temps que d'autres pastels dans une boucherie de Hohenlychen (Brandebourg), où Lovis Corinth séjournait alors avec Charlotte Berend-Corinth.
 Corinth était connu pour ses représentations de scènes d'abattoir et de boucherie réalisées au début de sa carrière de 1892 à 1921. En cela, il est revenu sur un sujet autrefois traité par Rembrandt, qui a peint deux tableaux de bœufs abattus.
 			À l'abattoir, 1893
